--- a/計休.xlsx
+++ b/計休.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouse\Desktop\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20933576-1C72-4817-ADC3-F2BF5CBBA70C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F20E8-C291-47BF-9831-7F02AE4D9B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>浜田</t>
     <rPh sb="0" eb="2">
@@ -76,6 +76,32 @@
     <t>マスト勤務</t>
     <rPh sb="3" eb="5">
       <t>キンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平日必要人数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休日必要人数</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンズウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,13 +438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -535,7 +565,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="str">
-        <f t="shared" ref="A10:A14" si="0">A3</f>
+        <f t="shared" ref="A10:A13" si="0">A3</f>
         <v>松本</v>
       </c>
       <c r="B10" s="1">
@@ -583,6 +613,22 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
